--- a/jpcore-r4b/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4b/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-dev</t>
   </si>
   <si>
     <t>Name</t>
